--- a/performance statistic.xlsx
+++ b/performance statistic.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14320" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14280" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="tcp-np-nthread" sheetId="1" r:id="rId1"/>
     <sheet name="tcp-p-nthread" sheetId="3" r:id="rId2"/>
     <sheet name="tcp-n-thread" sheetId="4" r:id="rId3"/>
     <sheet name="tcp-p-thread " sheetId="6" r:id="rId4"/>
+    <sheet name="udp-np-udp" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="15">
   <si>
     <t>Client Type</t>
   </si>
@@ -63,6 +64,15 @@
   </si>
   <si>
     <t>yes</t>
+  </si>
+  <si>
+    <t>udp</t>
+  </si>
+  <si>
+    <t>udp server</t>
+  </si>
+  <si>
+    <t>recved</t>
   </si>
 </sst>
 </file>
@@ -1063,7 +1073,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+    <sheetView showRuler="0" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -1279,4 +1289,279 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A6" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="22.1640625" defaultRowHeight="43" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="3" width="22.1640625" style="1"/>
+    <col min="4" max="4" width="22.1640625" style="2"/>
+    <col min="5" max="5" width="22.1640625" style="1"/>
+    <col min="6" max="6" width="22.1640625" style="2"/>
+    <col min="7" max="16384" width="22.1640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="43" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="43" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1094328</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2">
+        <v>75581</v>
+      </c>
+      <c r="G2" s="1">
+        <v>328281</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="43" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1094328</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2">
+        <v>97299</v>
+      </c>
+      <c r="G3" s="1">
+        <v>924883</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="43" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1094328</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
+        <v>90642</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1040306</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="43" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1094328</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
+        <v>102120</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1094328</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="43" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1094328</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2">
+        <v>100482</v>
+      </c>
+      <c r="G6" s="1">
+        <v>972909</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="43" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1094328</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2">
+        <v>89653</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1094328</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="43" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1094328</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2">
+        <v>69602</v>
+      </c>
+      <c r="G8" s="1">
+        <v>415223</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="43" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1094328</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2">
+        <v>92302</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1076340</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="43" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1094328</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2">
+        <v>83697</v>
+      </c>
+      <c r="G10" s="1">
+        <v>944428</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="43" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1094328</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2">
+        <v>109917</v>
+      </c>
+      <c r="G11" s="1">
+        <v>881470</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>